--- a/testdata/caldata.xlsx
+++ b/testdata/caldata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samus\development\java\UDEMY-Full-Stack-Java-Development-with-Spring-Boot-3-and-React\selenium-poi-automation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6229BAD1-2320-463A-8B0C-BBD3A57A8403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985CB199-B9C1-444C-95CA-511769A3B3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26082DA9-4B67-4B6B-AD66-9DEC59D0F2C9}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -95,6 +95,9 @@
     <t>24-Aug-2023</t>
   </si>
   <si>
+    <t>744.99</t>
+  </si>
+  <si>
     <t>₹ 164.00</t>
   </si>
   <si>
@@ -111,9 +114,6 @@
   </si>
   <si>
     <t>₹ 744.00</t>
-  </si>
-  <si>
-    <t>744.99</t>
   </si>
   <si>
     <t>Failed</t>
@@ -123,6 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,7 +151,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +165,18 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -201,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,11 +229,15 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,20 +555,20 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" style="1" width="8.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.88671875"/>
+    <col min="3" max="3" style="1" width="8.88671875"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="13.21875"/>
+    <col min="5" max="5" customWidth="true" style="1" width="15.5546875"/>
+    <col min="6" max="6" customWidth="true" style="1" width="12.33203125"/>
+    <col min="7" max="7" customWidth="true" style="1" width="13.21875"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.5546875"/>
+    <col min="9" max="16384" style="1" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -601,11 +616,11 @@
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="G2" t="s" s="1">
         <v>20</v>
+      </c>
+      <c r="H2" t="s" s="8">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -627,11 +642,11 @@
       <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s" s="9">
         <v>21</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -653,11 +668,11 @@
       <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>20</v>
+      <c r="G4" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s" s="10">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -679,11 +694,11 @@
       <c r="F5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>20</v>
+      <c r="G5" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s" s="11">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -703,12 +718,12 @@
         <v>18</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" t="s" s="12">
         <v>26</v>
       </c>
     </row>
